--- a/speed_ups.xlsx
+++ b/speed_ups.xlsx
@@ -15,15 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>C++</t>
   </si>
   <si>
     <t>PI</t>
   </si>
   <si>
     <t>COUNTING</t>
+  </si>
+  <si>
+    <t>BLUR</t>
   </si>
 </sst>
 </file>
@@ -32,35 +38,59 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,14 +105,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -96,29 +170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,51 +179,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,13 +199,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -208,25 +209,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +317,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,145 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +418,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -428,6 +458,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,190 +495,146 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -958,36 +959,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1025" width="11.5238095238095"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>2186.6421</v>
       </c>
+      <c r="C2">
+        <v>1860.58</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>687.9472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>384.6994</v>
       </c>
     </row>
   </sheetData>

--- a/speed_ups.xlsx
+++ b/speed_ups.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t xml:space="preserve">C</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve">SPEEDUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTI-C++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THREADS</t>
   </si>
 </sst>
 </file>
@@ -75,7 +81,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -96,6 +102,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,12 +153,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,7 +186,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -200,7 +217,9 @@
         <v>2166.2192</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="n">
+        <v>78.8</v>
+      </c>
       <c r="E2" s="1" t="n">
         <v>954.6208</v>
       </c>
@@ -228,7 +247,9 @@
         <v>5808.416</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="n">
+        <v>23515.1</v>
+      </c>
       <c r="E4" s="1" t="n">
         <v>5677.2858</v>
       </c>
@@ -242,7 +263,6 @@
         <v>4184.5866</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
       <c r="E5" s="1" t="n">
         <v>956.5737</v>
       </c>
@@ -256,7 +276,9 @@
         <v>230.8827</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="n">
+        <v>51.3</v>
+      </c>
       <c r="E6" s="1" t="n">
         <v>58.3138</v>
       </c>
@@ -270,7 +292,9 @@
         <v>41203.0913</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="n">
+        <v>226</v>
+      </c>
       <c r="E7" s="1" t="n">
         <v>22618.035</v>
       </c>
@@ -298,7 +322,9 @@
         <v>188.1445</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="n">
+        <v>118.7</v>
+      </c>
       <c r="E9" s="1" t="n">
         <v>67.0434</v>
       </c>
@@ -312,7 +338,9 @@
         <v>376.3335</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="n">
+        <v>127.9</v>
+      </c>
       <c r="E10" s="1" t="n">
         <v>102.1396</v>
       </c>
@@ -324,7 +352,9 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="n">
+        <v>1827.9</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
@@ -337,6 +367,12 @@
       <c r="B14" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -346,6 +382,7 @@
         <f aca="false">B2/E2</f>
         <v>2.26919338024061</v>
       </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">

--- a/speed_ups.xlsx
+++ b/speed_ups.xlsx
@@ -104,12 +104,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,12 +152,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,6 +174,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFF200"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -174,8 +244,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,6 +297,9 @@
       <c r="G2" s="1" t="n">
         <v>954.372</v>
       </c>
+      <c r="H2" s="1" t="n">
+        <v>36.2</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -241,12 +314,17 @@
       <c r="D3" s="1" t="n">
         <v>244.844</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="n">
+        <v>8400.9</v>
+      </c>
       <c r="F3" s="1" t="n">
         <v>1036.3424</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>103.331</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>762.8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -263,13 +341,16 @@
         <v>5856.28</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>23515.1</v>
+        <v>23351.4</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>5677.2858</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>5613.03</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>4647.9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -282,11 +363,21 @@
       <c r="C5" s="1" t="n">
         <v>4184.5866</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="n">
+        <v>4275.53</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>300.8</v>
+      </c>
       <c r="F5" s="1" t="n">
         <v>956.5737</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="n">
+        <v>954.265</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>87.6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -298,14 +389,21 @@
       <c r="C6" s="1" t="n">
         <v>230.8827</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="n">
+        <v>215.139</v>
+      </c>
       <c r="E6" s="1" t="n">
         <v>51.3</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>58.3138</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="n">
+        <v>51.4872</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -317,14 +415,21 @@
       <c r="C7" s="1" t="n">
         <v>41203.0913</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="n">
+        <v>244.306</v>
+      </c>
       <c r="E7" s="1" t="n">
         <v>226</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>22618.035</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="n">
+        <v>60.2295</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>40.5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -333,15 +438,12 @@
       <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>1185.6712</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="n">
-        <v>531.483</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -353,14 +455,21 @@
       <c r="C9" s="1" t="n">
         <v>188.1445</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="n">
+        <v>875.72</v>
+      </c>
       <c r="E9" s="1" t="n">
         <v>118.7</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>67.0434</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="n">
+        <v>119.026</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>47.7</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -372,14 +481,21 @@
       <c r="C10" s="1" t="n">
         <v>376.3335</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="n">
+        <v>458.383</v>
+      </c>
       <c r="E10" s="1" t="n">
         <v>127.9</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>102.1396</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="n">
+        <v>101.673</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>29.9</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -395,7 +511,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>181.4</v>
       </c>
     </row>
@@ -419,7 +535,7 @@
       <c r="B15" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="2" t="n">
         <f aca="false">C2/F2</f>
         <v>2.26919338024061</v>
       </c>
@@ -427,9 +543,9 @@
         <f aca="false">D2/G2</f>
         <v>2.25962203417535</v>
       </c>
-      <c r="E15" s="1" t="e">
+      <c r="E15" s="1" t="n">
         <f aca="false">E2/H2</f>
-        <v>#DIV/0!</v>
+        <v>2.1767955801105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -444,9 +560,9 @@
         <f aca="false">D3/G3</f>
         <v>2.36951156961609</v>
       </c>
-      <c r="E16" s="1" t="e">
+      <c r="E16" s="2" t="n">
         <f aca="false">E3/H3</f>
-        <v>#DIV/0!</v>
+        <v>11.0132406921867</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,9 +577,9 @@
         <f aca="false">D4/G4</f>
         <v>1.04333666486728</v>
       </c>
-      <c r="E17" s="1" t="e">
+      <c r="E17" s="2" t="n">
         <f aca="false">E4/H4</f>
-        <v>#DIV/0!</v>
+        <v>5.0240753888853</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,13 +590,13 @@
         <f aca="false">C5/F5</f>
         <v>4.37455744392722</v>
       </c>
-      <c r="D18" s="1" t="e">
+      <c r="D18" s="2" t="n">
         <f aca="false">D5/G5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="1" t="e">
+        <v>4.48044306350961</v>
+      </c>
+      <c r="E18" s="1" t="n">
         <f aca="false">E5/H5</f>
-        <v>#DIV/0!</v>
+        <v>3.4337899543379</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,13 +607,13 @@
         <f aca="false">C6/F6</f>
         <v>3.95931494774822</v>
       </c>
-      <c r="D19" s="1" t="e">
+      <c r="D19" s="2" t="n">
         <f aca="false">D6/G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="1" t="e">
+        <v>4.17849484920524</v>
+      </c>
+      <c r="E19" s="1" t="n">
         <f aca="false">E6/H6</f>
-        <v>#DIV/0!</v>
+        <v>1.00588235294118</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -508,31 +624,22 @@
         <f aca="false">C7/F7</f>
         <v>1.82169190648082</v>
       </c>
-      <c r="D20" s="1" t="e">
+      <c r="D20" s="1" t="n">
         <f aca="false">D7/G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="1" t="e">
+        <v>4.05625150466134</v>
+      </c>
+      <c r="E20" s="2" t="n">
         <f aca="false">E7/H7</f>
-        <v>#DIV/0!</v>
+        <v>5.58024691358025</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <f aca="false">C8/F8</f>
-        <v>2.23087323583257</v>
-      </c>
-      <c r="D21" s="1" t="e">
-        <f aca="false">D8/G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="1" t="e">
-        <f aca="false">E8/H8</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
@@ -542,13 +649,13 @@
         <f aca="false">C9/F9</f>
         <v>2.80630904757217</v>
       </c>
-      <c r="D22" s="1" t="e">
+      <c r="D22" s="2" t="n">
         <f aca="false">D9/G9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="1" t="e">
+        <v>7.35738410095273</v>
+      </c>
+      <c r="E22" s="1" t="n">
         <f aca="false">E9/H9</f>
-        <v>#DIV/0!</v>
+        <v>2.48846960167715</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,13 +666,13 @@
         <f aca="false">C10/F10</f>
         <v>3.68450140787706</v>
       </c>
-      <c r="D23" s="1" t="e">
+      <c r="D23" s="2" t="n">
         <f aca="false">D10/G10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="1" t="e">
+        <v>4.50840439448034</v>
+      </c>
+      <c r="E23" s="1" t="n">
         <f aca="false">E10/H10</f>
-        <v>#DIV/0!</v>
+        <v>4.27759197324415</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,7 +681,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="2" t="n">
         <f aca="false">E11/H11</f>
         <v>10.0766262403528</v>
       </c>

--- a/speed_ups.xlsx
+++ b/speed_ups.xlsx
@@ -245,7 +245,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,7 +350,7 @@
         <v>5613.03</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>4647.9</v>
+        <v>3766.4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,7 +579,7 @@
       </c>
       <c r="E17" s="2" t="n">
         <f aca="false">E4/H4</f>
-        <v>5.0240753888853</v>
+        <v>6.1999256584537</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/speed_ups.xlsx
+++ b/speed_ups.xlsx
@@ -40,6 +40,9 @@
     <t xml:space="preserve">THREADS</t>
   </si>
   <si>
+    <t xml:space="preserve">FORK-JOIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUM_ARRAY</t>
   </si>
   <si>
@@ -56,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">SORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDF</t>
   </si>
   <si>
     <t xml:space="preserve">JULIA</t>
@@ -242,10 +242,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -274,13 +274,16 @@
       <c r="H1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2166.2192</v>
@@ -299,6 +302,9 @@
       </c>
       <c r="H2" s="1" t="n">
         <v>36.2</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>38.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,7 +312,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2657.0309</v>
@@ -325,6 +331,9 @@
       </c>
       <c r="H3" s="1" t="n">
         <v>762.8</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>933.2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,7 +341,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>5808.416</v>
@@ -351,6 +360,9 @@
       </c>
       <c r="H4" s="1" t="n">
         <v>3766.4</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>3618.7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>4184.5866</v>
@@ -378,13 +390,14 @@
       <c r="H5" s="1" t="n">
         <v>87.6</v>
       </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>230.8827</v>
@@ -403,6 +416,9 @@
       </c>
       <c r="H6" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>52.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -410,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>41203.0913</v>
@@ -430,260 +446,288 @@
       <c r="H7" s="1" t="n">
         <v>40.5</v>
       </c>
+      <c r="I7" s="1" t="n">
+        <v>121.2</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>188.1445</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>875.72</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>67.0434</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>119.026</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>188.1445</v>
+        <v>376.3335</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>875.72</v>
+        <v>458.383</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>118.7</v>
+        <v>127.9</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>67.0434</v>
+        <v>102.1396</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>119.026</v>
+        <v>101.673</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>47.7</v>
+        <v>29.9</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>34.2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>376.3335</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>458.383</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>102.1396</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>101.673</v>
-      </c>
+        <v>1827.9</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="n">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="n">
-        <v>1827.9</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1" t="n">
         <v>181.4</v>
       </c>
+      <c r="I10" s="1" t="n">
+        <f aca="false">92</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>16</v>
+      <c r="C13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>5</v>
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <f aca="false">C2/F2</f>
+        <v>2.26919338024061</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <f aca="false">D2/G2</f>
+        <v>2.25962203417535</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <f aca="false">E2/H2</f>
+        <v>2.1767955801105</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">E2/I2</f>
+        <v>2.03617571059431</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <f aca="false">C2/F2</f>
-        <v>2.26919338024061</v>
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <f aca="false">C3/F3</f>
+        <v>2.56385428213687</v>
       </c>
       <c r="D15" s="1" t="n">
-        <f aca="false">D2/G2</f>
-        <v>2.25962203417535</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <f aca="false">E2/H2</f>
-        <v>2.1767955801105</v>
+        <f aca="false">D3/G3</f>
+        <v>2.36951156961609</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <f aca="false">E3/H3</f>
+        <v>11.0132406921867</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">E3/I3</f>
+        <v>9.0022503214745</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="n">
-        <f aca="false">C3/F3</f>
-        <v>2.56385428213687</v>
+        <f aca="false">C4/F4</f>
+        <v>1.02309733992958</v>
       </c>
       <c r="D16" s="1" t="n">
-        <f aca="false">D3/G3</f>
-        <v>2.36951156961609</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <f aca="false">E3/H3</f>
-        <v>11.0132406921867</v>
+        <f aca="false">D4/G4</f>
+        <v>1.04333666486728</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <f aca="false">E4/H4</f>
+        <v>6.1999256584537</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <f aca="false">E4/I4</f>
+        <v>6.45298035206013</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="n">
-        <f aca="false">C4/F4</f>
-        <v>1.02309733992958</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">D4/G4</f>
-        <v>1.04333666486728</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <f aca="false">E4/H4</f>
-        <v>6.1999256584537</v>
+        <f aca="false">C5/F5</f>
+        <v>4.37455744392722</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <f aca="false">D5/G5</f>
+        <v>4.48044306350961</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <f aca="false">E5/H5</f>
+        <v>3.4337899543379</v>
+      </c>
+      <c r="F17" s="1" t="e">
+        <f aca="false">E5/I5</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1" t="n">
-        <f aca="false">C5/F5</f>
-        <v>4.37455744392722</v>
+        <f aca="false">C6/F6</f>
+        <v>3.95931494774822</v>
       </c>
       <c r="D18" s="2" t="n">
-        <f aca="false">D5/G5</f>
-        <v>4.48044306350961</v>
+        <f aca="false">D6/G6</f>
+        <v>4.17849484920524</v>
       </c>
       <c r="E18" s="1" t="n">
-        <f aca="false">E5/H5</f>
-        <v>3.4337899543379</v>
+        <f aca="false">E6/H6</f>
+        <v>1.00588235294118</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">E6/I6</f>
+        <v>0.984644913627639</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="n">
-        <f aca="false">C6/F6</f>
-        <v>3.95931494774822</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <f aca="false">D6/G6</f>
-        <v>4.17849484920524</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <f aca="false">E6/H6</f>
-        <v>1.00588235294118</v>
+        <f aca="false">C7/F7</f>
+        <v>1.82169190648082</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <f aca="false">D7/G7</f>
+        <v>4.05625150466134</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <f aca="false">E7/H7</f>
+        <v>5.58024691358025</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <f aca="false">E7/I7</f>
+        <v>1.86468646864686</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1" t="n">
-        <f aca="false">C7/F7</f>
-        <v>1.82169190648082</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <f aca="false">D7/G7</f>
-        <v>4.05625150466134</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <f aca="false">E7/H7</f>
-        <v>5.58024691358025</v>
+        <f aca="false">C8/F8</f>
+        <v>2.80630904757217</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <f aca="false">D8/G8</f>
+        <v>7.35738410095273</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <f aca="false">E8/H8</f>
+        <v>2.48846960167715</v>
+      </c>
+      <c r="F20" s="1" t="e">
+        <f aca="false">E8/I8</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <f aca="false">C9/F9</f>
+        <v>3.68450140787706</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <f aca="false">D9/G9</f>
+        <v>4.50840439448034</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <f aca="false">E9/H9</f>
+        <v>4.27759197324415</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <f aca="false">E9/I9</f>
+        <v>3.73976608187134</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <f aca="false">C9/F9</f>
-        <v>2.80630904757217</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <f aca="false">D9/G9</f>
-        <v>7.35738410095273</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1" t="n">
-        <f aca="false">E9/H9</f>
-        <v>2.48846960167715</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <f aca="false">C10/F10</f>
-        <v>3.68450140787706</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <f aca="false">D10/G10</f>
-        <v>4.50840439448034</v>
-      </c>
-      <c r="E23" s="1" t="n">
         <f aca="false">E10/H10</f>
-        <v>4.27759197324415</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2" t="n">
-        <f aca="false">E11/H11</f>
         <v>10.0766262403528</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <f aca="false">E10/I10</f>
+        <v>19.8684782608696</v>
       </c>
     </row>
   </sheetData>

--- a/speed_ups.xlsx
+++ b/speed_ups.xlsx
@@ -245,7 +245,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -390,7 +390,9 @@
       <c r="H5" s="1" t="n">
         <v>87.6</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="n">
+        <v>93.98</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -475,7 +477,9 @@
       <c r="H8" s="1" t="n">
         <v>47.7</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="n">
+        <v>36.7</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -626,9 +630,9 @@
         <f aca="false">E5/H5</f>
         <v>3.4337899543379</v>
       </c>
-      <c r="F17" s="1" t="e">
+      <c r="F17" s="1" t="n">
         <f aca="false">E5/I5</f>
-        <v>#DIV/0!</v>
+        <v>3.20068099595659</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,9 +693,9 @@
         <f aca="false">E8/H8</f>
         <v>2.48846960167715</v>
       </c>
-      <c r="F20" s="1" t="e">
+      <c r="F20" s="1" t="n">
         <f aca="false">E8/I8</f>
-        <v>#DIV/0!</v>
+        <v>3.23433242506812</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/speed_ups.xlsx
+++ b/speed_ups.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t xml:space="preserve">C</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">FORK-JOIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPENMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPENMP OPTI-C</t>
   </si>
   <si>
     <t xml:space="preserve">SUM_ARRAY</t>
@@ -242,17 +248,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,13 +285,19 @@
       <c r="I1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2166.2192</v>
@@ -306,13 +320,19 @@
       <c r="I2" s="1" t="n">
         <v>38.7</v>
       </c>
+      <c r="J2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2657.0309</v>
@@ -334,6 +354,12 @@
       </c>
       <c r="I3" s="1" t="n">
         <v>933.2</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>749.8108</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>272.2695</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,7 +367,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>5808.416</v>
@@ -363,6 +389,12 @@
       </c>
       <c r="I4" s="1" t="n">
         <v>3618.7</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,7 +402,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>4184.5866</v>
@@ -392,6 +424,12 @@
       </c>
       <c r="I5" s="1" t="n">
         <v>93.98</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>230.8827</v>
@@ -421,6 +459,12 @@
       </c>
       <c r="I6" s="1" t="n">
         <v>52.1</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>41203.0913</v>
@@ -450,6 +494,12 @@
       </c>
       <c r="I7" s="1" t="n">
         <v>121.2</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,7 +507,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>188.1445</v>
@@ -479,6 +529,12 @@
       </c>
       <c r="I8" s="1" t="n">
         <v>36.7</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -486,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>376.3335</v>
@@ -508,6 +564,12 @@
       </c>
       <c r="I9" s="1" t="n">
         <v>34.2</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -531,10 +593,16 @@
         <f aca="false">92</f>
         <v>92</v>
       </c>
+      <c r="J10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -550,10 +618,16 @@
       <c r="F13" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="G13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2" t="n">
         <f aca="false">C2/F2</f>
@@ -571,10 +645,18 @@
         <f aca="false">E2/I2</f>
         <v>2.03617571059431</v>
       </c>
+      <c r="G14" s="1" t="n">
+        <f aca="false">C2/J2</f>
+        <v>2166.2192</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">C2/K2</f>
+        <v>2166.2192</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="n">
         <f aca="false">C3/F3</f>
@@ -592,10 +674,18 @@
         <f aca="false">E3/I3</f>
         <v>9.0022503214745</v>
       </c>
+      <c r="G15" s="1" t="n">
+        <f aca="false">C3/J3</f>
+        <v>3.54360179928057</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">C3/K3</f>
+        <v>9.75882682415768</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="n">
         <f aca="false">C4/F4</f>
@@ -613,10 +703,18 @@
         <f aca="false">E4/I4</f>
         <v>6.45298035206013</v>
       </c>
+      <c r="G16" s="1" t="n">
+        <f aca="false">C4/J4</f>
+        <v>5808.416</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <f aca="false">C4/K4</f>
+        <v>5808.416</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="n">
         <f aca="false">C5/F5</f>
@@ -634,10 +732,18 @@
         <f aca="false">E5/I5</f>
         <v>3.20068099595659</v>
       </c>
+      <c r="G17" s="1" t="n">
+        <f aca="false">C5/J5</f>
+        <v>4184.5866</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">C5/K5</f>
+        <v>4184.5866</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="n">
         <f aca="false">C6/F6</f>
@@ -655,10 +761,18 @@
         <f aca="false">E6/I6</f>
         <v>0.984644913627639</v>
       </c>
+      <c r="G18" s="1" t="n">
+        <f aca="false">C6/J6</f>
+        <v>230.8827</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">C6/K6</f>
+        <v>230.8827</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="n">
         <f aca="false">C7/F7</f>
@@ -676,10 +790,18 @@
         <f aca="false">E7/I7</f>
         <v>1.86468646864686</v>
       </c>
+      <c r="G19" s="1" t="n">
+        <f aca="false">C7/J7</f>
+        <v>41203.0913</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">C7/K7</f>
+        <v>41203.0913</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="n">
         <f aca="false">C8/F8</f>
@@ -697,10 +819,18 @@
         <f aca="false">E8/I8</f>
         <v>3.23433242506812</v>
       </c>
+      <c r="G20" s="1" t="n">
+        <f aca="false">C8/J8</f>
+        <v>188.1445</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">C8/K8</f>
+        <v>188.1445</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1" t="n">
         <f aca="false">C9/F9</f>
@@ -718,10 +848,18 @@
         <f aca="false">E9/I9</f>
         <v>3.73976608187134</v>
       </c>
+      <c r="G21" s="1" t="n">
+        <f aca="false">C9/J9</f>
+        <v>376.3335</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">C9/K9</f>
+        <v>376.3335</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -732,6 +870,14 @@
       <c r="F22" s="2" t="n">
         <f aca="false">E10/I10</f>
         <v>19.8684782608696</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <f aca="false">C10/J10</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <f aca="false">C10/K10</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/speed_ups.xlsx
+++ b/speed_ups.xlsx
@@ -251,7 +251,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -321,10 +321,10 @@
         <v>38.7</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>1</v>
+        <v>396.222</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>1</v>
+        <v>130.4542</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,10 +496,10 @@
         <v>121.2</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>1</v>
+        <v>9584.3419</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>1</v>
+        <v>3803.0667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -566,10 +566,10 @@
         <v>34.2</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>1</v>
+        <v>92.4693</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>1</v>
+        <v>25.5357</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,7 +629,7 @@
       <c r="B14" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false">C2/F2</f>
         <v>2.26919338024061</v>
       </c>
@@ -647,11 +647,11 @@
       </c>
       <c r="G14" s="1" t="n">
         <f aca="false">C2/J2</f>
-        <v>2166.2192</v>
-      </c>
-      <c r="H14" s="1" t="n">
+        <v>5.4671855676868</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <f aca="false">C2/K2</f>
-        <v>2166.2192</v>
+        <v>16.605208571284</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,6 +682,9 @@
         <f aca="false">C3/K3</f>
         <v>9.75882682415768</v>
       </c>
+      <c r="K15" s="0" t="n">
+        <v>16232.8702</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
@@ -782,7 +785,7 @@
         <f aca="false">D7/G7</f>
         <v>4.05625150466134</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="1" t="n">
         <f aca="false">E7/H7</f>
         <v>5.58024691358025</v>
       </c>
@@ -792,11 +795,11 @@
       </c>
       <c r="G19" s="1" t="n">
         <f aca="false">C7/J7</f>
-        <v>41203.0913</v>
-      </c>
-      <c r="H19" s="1" t="n">
+        <v>4.29900057092079</v>
+      </c>
+      <c r="H19" s="2" t="n">
         <f aca="false">C7/K7</f>
-        <v>41203.0913</v>
+        <v>10.8341752985821</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -836,7 +839,7 @@
         <f aca="false">C9/F9</f>
         <v>3.68450140787706</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="1" t="n">
         <f aca="false">D9/G9</f>
         <v>4.50840439448034</v>
       </c>
@@ -850,11 +853,11 @@
       </c>
       <c r="G21" s="1" t="n">
         <f aca="false">C9/J9</f>
-        <v>376.3335</v>
-      </c>
-      <c r="H21" s="1" t="n">
+        <v>4.06982101086523</v>
+      </c>
+      <c r="H21" s="2" t="n">
         <f aca="false">C9/K9</f>
-        <v>376.3335</v>
+        <v>14.7375439091155</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/speed_ups.xlsx
+++ b/speed_ups.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t xml:space="preserve">C</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t xml:space="preserve">OPENMP OPTI-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBB-OPTIC++</t>
   </si>
   <si>
     <t xml:space="preserve">SUM_ARRAY</t>
@@ -92,7 +98,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="134"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -248,10 +254,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -291,13 +297,19 @@
       <c r="K1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2166.2192</v>
@@ -325,6 +337,12 @@
       </c>
       <c r="K2" s="1" t="n">
         <v>130.4542</v>
+      </c>
+      <c r="L2" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -332,7 +350,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2657.0309</v>
@@ -360,6 +378,12 @@
       </c>
       <c r="K3" s="1" t="n">
         <v>272.2695</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -367,7 +391,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>5808.416</v>
@@ -391,10 +415,16 @@
         <v>3618.7</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>1</v>
+        <v>58874.2112</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>1</v>
+        <v>56787.8022</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -402,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>4184.5866</v>
@@ -426,10 +456,16 @@
         <v>93.98</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1</v>
+        <v>1026.6304</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1</v>
+        <v>263.1837</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>230.8827</v>
@@ -461,10 +497,16 @@
         <v>52.1</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>1</v>
+        <v>54.5315</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1</v>
+        <v>48.5842</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>71.7807</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>48.5494</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -472,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>41203.0913</v>
@@ -500,6 +542,12 @@
       </c>
       <c r="K7" s="1" t="n">
         <v>3803.0667</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>92.8012</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>40.1166</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -507,7 +555,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>188.1445</v>
@@ -531,10 +579,16 @@
         <v>36.7</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>1</v>
+        <v>84.6595</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>1</v>
+        <v>25.2523</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,7 +596,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>376.3335</v>
@@ -570,6 +624,12 @@
       </c>
       <c r="K9" s="1" t="n">
         <v>25.5357</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,7 +637,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -593,16 +653,17 @@
         <f aca="false">92</f>
         <v>92</v>
       </c>
-      <c r="J10" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,10 +685,16 @@
       <c r="H13" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="I13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="n">
         <f aca="false">C2/F2</f>
@@ -653,10 +720,18 @@
         <f aca="false">C2/K2</f>
         <v>16.605208571284</v>
       </c>
+      <c r="I14" s="1" t="n">
+        <f aca="false">IF(M2&lt;0,0,(D2/L2))</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <f aca="false">IF(M2&lt;0,0,(D2/M2))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" s="1" t="n">
         <f aca="false">C3/F3</f>
@@ -682,13 +757,18 @@
         <f aca="false">C3/K3</f>
         <v>9.75882682415768</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <v>16232.8702</v>
+      <c r="I15" s="1" t="n">
+        <f aca="false">IF(M3&lt;0,0,(D3/L3))</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <f aca="false">IF(M3&lt;0,0,(D3/M3))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="n">
         <f aca="false">C4/F4</f>
@@ -708,16 +788,24 @@
       </c>
       <c r="G16" s="1" t="n">
         <f aca="false">C4/J4</f>
-        <v>5808.416</v>
+        <v>0.0986580691547337</v>
       </c>
       <c r="H16" s="1" t="n">
         <f aca="false">C4/K4</f>
-        <v>5808.416</v>
+        <v>0.102282810303935</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <f aca="false">IF(M4&lt;0,0,(D4/L4))</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <f aca="false">IF(M4&lt;0,0,(D4/M4))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="n">
         <f aca="false">C5/F5</f>
@@ -737,22 +825,30 @@
       </c>
       <c r="G17" s="1" t="n">
         <f aca="false">C5/J5</f>
-        <v>4184.5866</v>
+        <v>4.07604002375149</v>
       </c>
       <c r="H17" s="1" t="n">
         <f aca="false">C5/K5</f>
-        <v>4184.5866</v>
+        <v>15.8998699387538</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <f aca="false">IF(M5&lt;0,0,(D5/L5))</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <f aca="false">IF(M5&lt;0,0,(D5/M5))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" s="1" t="n">
         <f aca="false">C6/F6</f>
         <v>3.95931494774822</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="1" t="n">
         <f aca="false">D6/G6</f>
         <v>4.17849484920524</v>
       </c>
@@ -766,16 +862,24 @@
       </c>
       <c r="G18" s="1" t="n">
         <f aca="false">C6/J6</f>
-        <v>230.8827</v>
+        <v>4.23393268111092</v>
       </c>
       <c r="H18" s="1" t="n">
         <f aca="false">C6/K6</f>
-        <v>230.8827</v>
+        <v>4.75221779920221</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <f aca="false">IF(M6&lt;0,0,(D6/L6))</f>
+        <v>2.99717054862937</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <f aca="false">IF(M6&lt;0,0,(D6/M6))</f>
+        <v>4.43134209691572</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="n">
         <f aca="false">C7/F7</f>
@@ -801,10 +905,18 @@
         <f aca="false">C7/K7</f>
         <v>10.8341752985821</v>
       </c>
+      <c r="I19" s="1" t="n">
+        <f aca="false">IF(M7&lt;0,0,(D7/L7))</f>
+        <v>2.63257371671918</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <f aca="false">IF(M7&lt;0,0,(D7/M7))</f>
+        <v>6.08989794748309</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="n">
         <f aca="false">C8/F8</f>
@@ -824,16 +936,24 @@
       </c>
       <c r="G20" s="1" t="n">
         <f aca="false">C8/J8</f>
-        <v>188.1445</v>
+        <v>2.22236724762135</v>
       </c>
       <c r="H20" s="1" t="n">
         <f aca="false">C8/K8</f>
-        <v>188.1445</v>
+        <v>7.45058865925084</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <f aca="false">IF(M8&lt;0,0,(D8/L8))</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <f aca="false">IF(M8&lt;0,0,(D8/M8))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1" t="n">
         <f aca="false">C9/F9</f>
@@ -859,10 +979,18 @@
         <f aca="false">C9/K9</f>
         <v>14.7375439091155</v>
       </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">IF(M9&lt;0,0,(D9/L9))</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <f aca="false">IF(M9&lt;0,0,(D9/M9))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -874,14 +1002,10 @@
         <f aca="false">E10/I10</f>
         <v>19.8684782608696</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <f aca="false">C10/J10</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <f aca="false">C10/K10</f>
-        <v>0</v>
-      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/speed_ups.xlsx
+++ b/speed_ups.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -256,8 +256,8 @@
   </sheetPr>
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,10 +339,10 @@
         <v>130.4542</v>
       </c>
       <c r="L2" s="1" t="n">
-        <v>-1</v>
+        <v>606.32</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>-1</v>
+        <v>130.24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,10 +380,10 @@
         <v>272.2695</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>-1</v>
+        <v>95.3193</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>-1</v>
+        <v>27.4615</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,12 +721,12 @@
         <v>16.605208571284</v>
       </c>
       <c r="I14" s="1" t="n">
-        <f aca="false">IF(M2&lt;0,0,(D2/L2))</f>
-        <v>0</v>
+        <f aca="false">D2/L2</f>
+        <v>3.55673571711308</v>
       </c>
       <c r="J14" s="1" t="n">
         <f aca="false">IF(M2&lt;0,0,(D2/M2))</f>
-        <v>0</v>
+        <v>16.5580466830467</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,12 +758,12 @@
         <v>9.75882682415768</v>
       </c>
       <c r="I15" s="1" t="n">
-        <f aca="false">IF(M3&lt;0,0,(D3/L3))</f>
-        <v>0</v>
+        <f aca="false">D3/L3</f>
+        <v>2.568671821971</v>
       </c>
       <c r="J15" s="1" t="n">
         <f aca="false">IF(M3&lt;0,0,(D3/M3))</f>
-        <v>0</v>
+        <v>8.9159004424376</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/speed_ups.xlsx
+++ b/speed_ups.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t xml:space="preserve">C</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">TBB-OPTIC++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUDA</t>
   </si>
   <si>
     <t xml:space="preserve">SUM_ARRAY</t>
@@ -89,9 +92,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -164,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -174,6 +178,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,10 +262,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,13 +311,16 @@
       <c r="M1" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>2166.2192</v>
@@ -343,6 +354,9 @@
       </c>
       <c r="M2" s="1" t="n">
         <v>130.24</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0.0032</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>2657.0309</v>
@@ -384,6 +398,9 @@
       </c>
       <c r="M3" s="1" t="n">
         <v>27.4615</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.0031</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>5808.416</v>
@@ -432,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>4184.5866</v>
@@ -473,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>230.8827</v>
@@ -514,7 +531,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>41203.0913</v>
@@ -548,6 +565,9 @@
       </c>
       <c r="M7" s="1" t="n">
         <v>40.1166</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>0.003</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -555,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>188.1445</v>
@@ -589,6 +609,9 @@
       </c>
       <c r="M8" s="1" t="n">
         <v>-1</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>0.0058</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,7 +619,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>376.3335</v>
@@ -630,6 +653,9 @@
       </c>
       <c r="M9" s="1" t="n">
         <v>-1</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>0.0142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -637,7 +663,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -663,7 +689,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,10 +717,13 @@
       <c r="J13" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="K13" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="n">
         <f aca="false">C2/F2</f>
@@ -728,10 +757,14 @@
         <f aca="false">IF(M2&lt;0,0,(D2/M2))</f>
         <v>16.5580466830467</v>
       </c>
+      <c r="K14" s="3" t="n">
+        <f aca="false">C2/N2</f>
+        <v>676943.5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="n">
         <f aca="false">C3/F3</f>
@@ -765,10 +798,14 @@
         <f aca="false">IF(M3&lt;0,0,(D3/M3))</f>
         <v>8.9159004424376</v>
       </c>
+      <c r="K15" s="3" t="n">
+        <f aca="false">C3/N3</f>
+        <v>857106.741935484</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="n">
         <f aca="false">C4/F4</f>
@@ -802,10 +839,14 @@
         <f aca="false">IF(M4&lt;0,0,(D4/M4))</f>
         <v>0</v>
       </c>
+      <c r="K16" s="0" t="e">
+        <f aca="false">C4/N4</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="n">
         <f aca="false">C5/F5</f>
@@ -839,10 +880,14 @@
         <f aca="false">IF(M5&lt;0,0,(D5/M5))</f>
         <v>0</v>
       </c>
+      <c r="K17" s="0" t="e">
+        <f aca="false">C5/N5</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="n">
         <f aca="false">C6/F6</f>
@@ -876,10 +921,14 @@
         <f aca="false">IF(M6&lt;0,0,(D6/M6))</f>
         <v>4.43134209691572</v>
       </c>
+      <c r="K18" s="0" t="e">
+        <f aca="false">C6/N6</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="n">
         <f aca="false">C7/F7</f>
@@ -913,10 +962,14 @@
         <f aca="false">IF(M7&lt;0,0,(D7/M7))</f>
         <v>6.08989794748309</v>
       </c>
+      <c r="K19" s="3" t="n">
+        <f aca="false">C7/N7</f>
+        <v>13734363.7666667</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="n">
         <f aca="false">C8/F8</f>
@@ -950,10 +1003,14 @@
         <f aca="false">IF(M8&lt;0,0,(D8/M8))</f>
         <v>0</v>
       </c>
+      <c r="K20" s="3" t="n">
+        <f aca="false">C8/N8</f>
+        <v>32438.7068965517</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="n">
         <f aca="false">C9/F9</f>
@@ -987,10 +1044,14 @@
         <f aca="false">IF(M9&lt;0,0,(D9/M9))</f>
         <v>0</v>
       </c>
+      <c r="K21" s="3" t="n">
+        <f aca="false">C9/N9</f>
+        <v>26502.3591549296</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
